--- a/ETroboconWBS0715-0729.xlsx
+++ b/ETroboconWBS0715-0729.xlsx
@@ -559,7 +559,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +607,18 @@
         <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="53">
     <border>
@@ -1298,7 +1310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1563,9 +1575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
@@ -1583,6 +1592,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2144,10 +2168,10 @@
   <dimension ref="B1:DN67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BI3" sqref="BI3"/>
+      <selection pane="bottomRight" activeCell="BH54" sqref="BH54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2163,13 +2187,13 @@
   <sheetData>
     <row r="1" spans="2:118" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2290,11 +2314,11 @@
       <c r="DN2" s="7"/>
     </row>
     <row r="3" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2388,31 +2412,31 @@
       </c>
       <c r="BH3" s="10"/>
       <c r="BI3" s="10"/>
-      <c r="BJ3" s="11">
+      <c r="BJ3" s="95">
         <v>42570</v>
       </c>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11">
+      <c r="BK3" s="95"/>
+      <c r="BL3" s="95"/>
+      <c r="BM3" s="95">
         <v>42571</v>
       </c>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11">
+      <c r="BN3" s="95"/>
+      <c r="BO3" s="95"/>
+      <c r="BP3" s="95">
         <v>42572</v>
       </c>
-      <c r="BQ3" s="11"/>
-      <c r="BR3" s="11"/>
-      <c r="BS3" s="11">
+      <c r="BQ3" s="95"/>
+      <c r="BR3" s="95"/>
+      <c r="BS3" s="95">
         <v>42573</v>
       </c>
-      <c r="BT3" s="11"/>
-      <c r="BU3" s="11"/>
-      <c r="BV3" s="11">
+      <c r="BT3" s="95"/>
+      <c r="BU3" s="95"/>
+      <c r="BV3" s="95">
         <v>42574</v>
       </c>
-      <c r="BW3" s="11"/>
-      <c r="BX3" s="11"/>
+      <c r="BW3" s="95"/>
+      <c r="BX3" s="95"/>
       <c r="BY3" s="12">
         <v>42575</v>
       </c>
@@ -7967,20 +7991,20 @@
       <c r="BG46" s="45"/>
       <c r="BH46" s="45"/>
       <c r="BI46" s="45"/>
-      <c r="BJ46" s="47"/>
-      <c r="BK46" s="47"/>
-      <c r="BL46" s="47"/>
-      <c r="BM46" s="47"/>
-      <c r="BN46" s="47"/>
-      <c r="BO46" s="47"/>
-      <c r="BP46" s="47"/>
-      <c r="BQ46" s="48"/>
-      <c r="BR46" s="47"/>
-      <c r="BS46" s="47"/>
-      <c r="BT46" s="47"/>
-      <c r="BU46" s="47"/>
-      <c r="BV46" s="47"/>
-      <c r="BW46" s="47"/>
+      <c r="BJ46" s="97"/>
+      <c r="BK46" s="97"/>
+      <c r="BL46" s="97"/>
+      <c r="BM46" s="97"/>
+      <c r="BN46" s="97"/>
+      <c r="BO46" s="97"/>
+      <c r="BP46" s="97"/>
+      <c r="BQ46" s="98"/>
+      <c r="BR46" s="96"/>
+      <c r="BS46" s="96"/>
+      <c r="BT46" s="96"/>
+      <c r="BU46" s="96"/>
+      <c r="BV46" s="97"/>
+      <c r="BW46" s="96"/>
       <c r="BX46" s="47"/>
       <c r="BY46" s="49"/>
       <c r="BZ46" s="49"/>
@@ -8217,18 +8241,18 @@
       <c r="BI48" s="45"/>
       <c r="BJ48" s="47"/>
       <c r="BK48" s="47"/>
-      <c r="BL48" s="47"/>
-      <c r="BM48" s="47"/>
-      <c r="BN48" s="47"/>
-      <c r="BO48" s="47"/>
-      <c r="BP48" s="47"/>
-      <c r="BQ48" s="48"/>
-      <c r="BR48" s="47"/>
-      <c r="BS48" s="47"/>
-      <c r="BT48" s="47"/>
-      <c r="BU48" s="47"/>
-      <c r="BV48" s="47"/>
-      <c r="BW48" s="47"/>
+      <c r="BL48" s="97"/>
+      <c r="BM48" s="97"/>
+      <c r="BN48" s="97"/>
+      <c r="BO48" s="97"/>
+      <c r="BP48" s="97"/>
+      <c r="BQ48" s="98"/>
+      <c r="BR48" s="97"/>
+      <c r="BS48" s="97"/>
+      <c r="BT48" s="97"/>
+      <c r="BU48" s="97"/>
+      <c r="BV48" s="97"/>
+      <c r="BW48" s="96"/>
       <c r="BX48" s="47"/>
       <c r="BY48" s="49"/>
       <c r="BZ48" s="49"/>
@@ -8469,15 +8493,15 @@
       <c r="BM50" s="47"/>
       <c r="BN50" s="47"/>
       <c r="BO50" s="47"/>
-      <c r="BP50" s="47"/>
-      <c r="BQ50" s="48"/>
-      <c r="BR50" s="47"/>
-      <c r="BS50" s="47"/>
-      <c r="BT50" s="47"/>
-      <c r="BU50" s="47"/>
-      <c r="BV50" s="47"/>
-      <c r="BW50" s="47"/>
-      <c r="BX50" s="47"/>
+      <c r="BP50" s="97"/>
+      <c r="BQ50" s="98"/>
+      <c r="BR50" s="97"/>
+      <c r="BS50" s="97"/>
+      <c r="BT50" s="97"/>
+      <c r="BU50" s="97"/>
+      <c r="BV50" s="97"/>
+      <c r="BW50" s="96"/>
+      <c r="BX50" s="96"/>
       <c r="BY50" s="49"/>
       <c r="BZ50" s="49"/>
       <c r="CA50" s="49"/>
@@ -8718,14 +8742,14 @@
       <c r="BN52" s="47"/>
       <c r="BO52" s="47"/>
       <c r="BP52" s="47"/>
-      <c r="BQ52" s="48"/>
-      <c r="BR52" s="47"/>
-      <c r="BS52" s="47"/>
-      <c r="BT52" s="47"/>
-      <c r="BU52" s="47"/>
-      <c r="BV52" s="47"/>
-      <c r="BW52" s="47"/>
-      <c r="BX52" s="47"/>
+      <c r="BQ52" s="98"/>
+      <c r="BR52" s="97"/>
+      <c r="BS52" s="97"/>
+      <c r="BT52" s="97"/>
+      <c r="BU52" s="97"/>
+      <c r="BV52" s="97"/>
+      <c r="BW52" s="96"/>
+      <c r="BX52" s="96"/>
       <c r="BY52" s="49"/>
       <c r="BZ52" s="49"/>
       <c r="CA52" s="49"/>
@@ -8968,12 +8992,12 @@
       <c r="BP54" s="47"/>
       <c r="BQ54" s="48"/>
       <c r="BR54" s="47"/>
-      <c r="BS54" s="47"/>
-      <c r="BT54" s="47"/>
-      <c r="BU54" s="47"/>
-      <c r="BV54" s="47"/>
-      <c r="BW54" s="47"/>
-      <c r="BX54" s="47"/>
+      <c r="BS54" s="97"/>
+      <c r="BT54" s="97"/>
+      <c r="BU54" s="97"/>
+      <c r="BV54" s="97"/>
+      <c r="BW54" s="96"/>
+      <c r="BX54" s="96"/>
       <c r="BY54" s="49"/>
       <c r="BZ54" s="49"/>
       <c r="CA54" s="49"/>
@@ -9219,9 +9243,9 @@
       <c r="BS56" s="47"/>
       <c r="BT56" s="47"/>
       <c r="BU56" s="47"/>
-      <c r="BV56" s="47"/>
-      <c r="BW56" s="47"/>
-      <c r="BX56" s="47"/>
+      <c r="BV56" s="97"/>
+      <c r="BW56" s="97"/>
+      <c r="BX56" s="96"/>
       <c r="BY56" s="49"/>
       <c r="BZ56" s="49"/>
       <c r="CA56" s="49"/>
@@ -9965,7 +9989,7 @@
       <c r="BU62" s="47"/>
       <c r="BV62" s="47"/>
       <c r="BW62" s="47"/>
-      <c r="BX62" s="47"/>
+      <c r="BX62" s="96"/>
       <c r="BY62" s="49"/>
       <c r="BZ62" s="49"/>
       <c r="CA62" s="49"/>
@@ -10211,8 +10235,8 @@
       <c r="BS64" s="47"/>
       <c r="BT64" s="47"/>
       <c r="BU64" s="47"/>
-      <c r="BV64" s="47"/>
-      <c r="BW64" s="47"/>
+      <c r="BV64" s="96"/>
+      <c r="BW64" s="96"/>
       <c r="BX64" s="47"/>
       <c r="BY64" s="49"/>
       <c r="BZ64" s="49"/>
@@ -10379,7 +10403,7 @@
       <c r="DN65" s="41"/>
     </row>
     <row r="66" spans="2:118" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="88"/>
+      <c r="B66" s="94"/>
       <c r="C66" s="72"/>
       <c r="D66" s="73"/>
       <c r="E66" s="73"/>
@@ -10512,6 +10536,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="B5:B6"/>
@@ -10524,26 +10568,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/ETroboconWBS0715-0729.xlsx
+++ b/ETroboconWBS0715-0729.xlsx
@@ -559,7 +559,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,6 +629,12 @@
       <patternFill patternType="lightGray">
         <fgColor theme="2" tint="-9.9948118533890809E-2"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1590,6 +1596,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,26 +1641,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2198,10 +2204,10 @@
   <dimension ref="B1:DN67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="BT5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="BT46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CF18" sqref="CF18"/>
+      <selection pane="bottomRight" activeCell="CH3" sqref="CH3:CJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2217,13 +2223,13 @@
   <sheetData>
     <row r="1" spans="2:118" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2344,11 +2350,11 @@
       <c r="DN2" s="7"/>
     </row>
     <row r="3" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B3" s="95"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2467,26 +2473,26 @@
       </c>
       <c r="BW3" s="85"/>
       <c r="BX3" s="85"/>
-      <c r="BY3" s="98">
+      <c r="BY3" s="89">
         <v>42575</v>
       </c>
-      <c r="BZ3" s="98"/>
-      <c r="CA3" s="98"/>
+      <c r="BZ3" s="89"/>
+      <c r="CA3" s="89"/>
       <c r="CB3" s="85">
         <v>42576</v>
       </c>
       <c r="CC3" s="85"/>
       <c r="CD3" s="85"/>
-      <c r="CE3" s="11">
+      <c r="CE3" s="85">
         <v>42577</v>
       </c>
-      <c r="CF3" s="11"/>
-      <c r="CG3" s="11"/>
-      <c r="CH3" s="99">
+      <c r="CF3" s="85"/>
+      <c r="CG3" s="85"/>
+      <c r="CH3" s="104">
         <v>42578</v>
       </c>
-      <c r="CI3" s="99"/>
-      <c r="CJ3" s="99"/>
+      <c r="CI3" s="104"/>
+      <c r="CJ3" s="104"/>
       <c r="CK3" s="11">
         <v>42579</v>
       </c>
@@ -2791,13 +2797,13 @@
       <c r="CG4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="CH4" s="100" t="s">
+      <c r="CH4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="CI4" s="100" t="s">
+      <c r="CI4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="CJ4" s="100" t="s">
+      <c r="CJ4" s="90" t="s">
         <v>13</v>
       </c>
       <c r="CK4" s="22" t="s">
@@ -2892,7 +2898,7 @@
       </c>
     </row>
     <row r="5" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="95" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -2988,9 +2994,9 @@
       <c r="CE5" s="34"/>
       <c r="CF5" s="34"/>
       <c r="CG5" s="34"/>
-      <c r="CH5" s="101"/>
-      <c r="CI5" s="101"/>
-      <c r="CJ5" s="101"/>
+      <c r="CH5" s="91"/>
+      <c r="CI5" s="91"/>
+      <c r="CJ5" s="91"/>
       <c r="CK5" s="34"/>
       <c r="CL5" s="34"/>
       <c r="CM5" s="34"/>
@@ -3023,7 +3029,7 @@
       <c r="DN5" s="40"/>
     </row>
     <row r="6" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B6" s="90"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="41"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3109,9 +3115,9 @@
       <c r="CE6" s="46"/>
       <c r="CF6" s="46"/>
       <c r="CG6" s="46"/>
-      <c r="CH6" s="102"/>
-      <c r="CI6" s="102"/>
-      <c r="CJ6" s="102"/>
+      <c r="CH6" s="92"/>
+      <c r="CI6" s="92"/>
+      <c r="CJ6" s="92"/>
       <c r="CK6" s="46"/>
       <c r="CL6" s="46"/>
       <c r="CM6" s="46"/>
@@ -3144,7 +3150,7 @@
       <c r="DN6" s="52"/>
     </row>
     <row r="7" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B7" s="89"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="28" t="s">
         <v>20</v>
       </c>
@@ -3238,9 +3244,9 @@
       <c r="CE7" s="34"/>
       <c r="CF7" s="34"/>
       <c r="CG7" s="34"/>
-      <c r="CH7" s="101"/>
-      <c r="CI7" s="101"/>
-      <c r="CJ7" s="101"/>
+      <c r="CH7" s="91"/>
+      <c r="CI7" s="91"/>
+      <c r="CJ7" s="91"/>
       <c r="CK7" s="34"/>
       <c r="CL7" s="34"/>
       <c r="CM7" s="34"/>
@@ -3273,7 +3279,7 @@
       <c r="DN7" s="40"/>
     </row>
     <row r="8" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B8" s="90"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="41"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -3359,9 +3365,9 @@
       <c r="CE8" s="46"/>
       <c r="CF8" s="46"/>
       <c r="CG8" s="46"/>
-      <c r="CH8" s="102"/>
-      <c r="CI8" s="102"/>
-      <c r="CJ8" s="102"/>
+      <c r="CH8" s="92"/>
+      <c r="CI8" s="92"/>
+      <c r="CJ8" s="92"/>
       <c r="CK8" s="46"/>
       <c r="CL8" s="46"/>
       <c r="CM8" s="46"/>
@@ -3394,7 +3400,7 @@
       <c r="DN8" s="52"/>
     </row>
     <row r="9" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B9" s="89"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
@@ -3482,9 +3488,9 @@
       <c r="CE9" s="34"/>
       <c r="CF9" s="34"/>
       <c r="CG9" s="34"/>
-      <c r="CH9" s="101"/>
-      <c r="CI9" s="101"/>
-      <c r="CJ9" s="101"/>
+      <c r="CH9" s="91"/>
+      <c r="CI9" s="91"/>
+      <c r="CJ9" s="91"/>
       <c r="CK9" s="34"/>
       <c r="CL9" s="34"/>
       <c r="CM9" s="34"/>
@@ -3517,7 +3523,7 @@
       <c r="DN9" s="40"/>
     </row>
     <row r="10" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B10" s="90"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="55"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -3603,9 +3609,9 @@
       <c r="CE10" s="46"/>
       <c r="CF10" s="46"/>
       <c r="CG10" s="46"/>
-      <c r="CH10" s="102"/>
-      <c r="CI10" s="102"/>
-      <c r="CJ10" s="102"/>
+      <c r="CH10" s="92"/>
+      <c r="CI10" s="92"/>
+      <c r="CJ10" s="92"/>
       <c r="CK10" s="46"/>
       <c r="CL10" s="46"/>
       <c r="CM10" s="46"/>
@@ -3638,7 +3644,7 @@
       <c r="DN10" s="52"/>
     </row>
     <row r="11" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B11" s="89"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="28" t="s">
         <v>23</v>
       </c>
@@ -3732,9 +3738,9 @@
       <c r="CE11" s="34"/>
       <c r="CF11" s="34"/>
       <c r="CG11" s="34"/>
-      <c r="CH11" s="101"/>
-      <c r="CI11" s="101"/>
-      <c r="CJ11" s="101"/>
+      <c r="CH11" s="91"/>
+      <c r="CI11" s="91"/>
+      <c r="CJ11" s="91"/>
       <c r="CK11" s="34"/>
       <c r="CL11" s="34"/>
       <c r="CM11" s="34"/>
@@ -3767,7 +3773,7 @@
       <c r="DN11" s="40"/>
     </row>
     <row r="12" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B12" s="90"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="41"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -3853,9 +3859,9 @@
       <c r="CE12" s="46"/>
       <c r="CF12" s="46"/>
       <c r="CG12" s="46"/>
-      <c r="CH12" s="102"/>
-      <c r="CI12" s="102"/>
-      <c r="CJ12" s="102"/>
+      <c r="CH12" s="92"/>
+      <c r="CI12" s="92"/>
+      <c r="CJ12" s="92"/>
       <c r="CK12" s="46"/>
       <c r="CL12" s="46"/>
       <c r="CM12" s="46"/>
@@ -3888,7 +3894,7 @@
       <c r="DN12" s="52"/>
     </row>
     <row r="13" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B13" s="89"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="28" t="s">
         <v>24</v>
       </c>
@@ -3976,9 +3982,9 @@
       <c r="CE13" s="34"/>
       <c r="CF13" s="34"/>
       <c r="CG13" s="34"/>
-      <c r="CH13" s="101"/>
-      <c r="CI13" s="101"/>
-      <c r="CJ13" s="101"/>
+      <c r="CH13" s="91"/>
+      <c r="CI13" s="91"/>
+      <c r="CJ13" s="91"/>
       <c r="CK13" s="34"/>
       <c r="CL13" s="34"/>
       <c r="CM13" s="34"/>
@@ -4011,7 +4017,7 @@
       <c r="DN13" s="40"/>
     </row>
     <row r="14" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B14" s="90"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="55"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -4097,9 +4103,9 @@
       <c r="CE14" s="46"/>
       <c r="CF14" s="46"/>
       <c r="CG14" s="46"/>
-      <c r="CH14" s="102"/>
-      <c r="CI14" s="102"/>
-      <c r="CJ14" s="102"/>
+      <c r="CH14" s="92"/>
+      <c r="CI14" s="92"/>
+      <c r="CJ14" s="92"/>
       <c r="CK14" s="46"/>
       <c r="CL14" s="46"/>
       <c r="CM14" s="46"/>
@@ -4132,7 +4138,7 @@
       <c r="DN14" s="52"/>
     </row>
     <row r="15" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B15" s="89"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="28" t="s">
         <v>25</v>
       </c>
@@ -4226,9 +4232,9 @@
       <c r="CE15" s="34"/>
       <c r="CF15" s="34"/>
       <c r="CG15" s="34"/>
-      <c r="CH15" s="101"/>
-      <c r="CI15" s="101"/>
-      <c r="CJ15" s="101"/>
+      <c r="CH15" s="91"/>
+      <c r="CI15" s="91"/>
+      <c r="CJ15" s="91"/>
       <c r="CK15" s="34"/>
       <c r="CL15" s="34"/>
       <c r="CM15" s="34"/>
@@ -4261,7 +4267,7 @@
       <c r="DN15" s="40"/>
     </row>
     <row r="16" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B16" s="90"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="41"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -4347,9 +4353,9 @@
       <c r="CE16" s="46"/>
       <c r="CF16" s="46"/>
       <c r="CG16" s="46"/>
-      <c r="CH16" s="102"/>
-      <c r="CI16" s="102"/>
-      <c r="CJ16" s="102"/>
+      <c r="CH16" s="92"/>
+      <c r="CI16" s="92"/>
+      <c r="CJ16" s="92"/>
       <c r="CK16" s="46"/>
       <c r="CL16" s="46"/>
       <c r="CM16" s="46"/>
@@ -4382,7 +4388,7 @@
       <c r="DN16" s="52"/>
     </row>
     <row r="17" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B17" s="89"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="28" t="s">
         <v>27</v>
       </c>
@@ -4470,9 +4476,9 @@
       <c r="CE17" s="34"/>
       <c r="CF17" s="34"/>
       <c r="CG17" s="34"/>
-      <c r="CH17" s="101"/>
-      <c r="CI17" s="101"/>
-      <c r="CJ17" s="101"/>
+      <c r="CH17" s="91"/>
+      <c r="CI17" s="91"/>
+      <c r="CJ17" s="91"/>
       <c r="CK17" s="34"/>
       <c r="CL17" s="34"/>
       <c r="CM17" s="34"/>
@@ -4505,7 +4511,7 @@
       <c r="DN17" s="40"/>
     </row>
     <row r="18" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B18" s="90"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="55"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -4591,9 +4597,9 @@
       <c r="CE18" s="46"/>
       <c r="CF18" s="46"/>
       <c r="CG18" s="46"/>
-      <c r="CH18" s="102"/>
-      <c r="CI18" s="102"/>
-      <c r="CJ18" s="102"/>
+      <c r="CH18" s="92"/>
+      <c r="CI18" s="92"/>
+      <c r="CJ18" s="92"/>
       <c r="CK18" s="46"/>
       <c r="CL18" s="46"/>
       <c r="CM18" s="46"/>
@@ -4626,7 +4632,7 @@
       <c r="DN18" s="52"/>
     </row>
     <row r="19" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B19" s="89"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="28" t="s">
         <v>28</v>
       </c>
@@ -4720,9 +4726,9 @@
       <c r="CE19" s="34"/>
       <c r="CF19" s="34"/>
       <c r="CG19" s="34"/>
-      <c r="CH19" s="101"/>
-      <c r="CI19" s="101"/>
-      <c r="CJ19" s="101"/>
+      <c r="CH19" s="91"/>
+      <c r="CI19" s="91"/>
+      <c r="CJ19" s="91"/>
       <c r="CK19" s="34"/>
       <c r="CL19" s="34"/>
       <c r="CM19" s="34"/>
@@ -4755,7 +4761,7 @@
       <c r="DN19" s="40"/>
     </row>
     <row r="20" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B20" s="90"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="41"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -4841,9 +4847,9 @@
       <c r="CE20" s="46"/>
       <c r="CF20" s="46"/>
       <c r="CG20" s="46"/>
-      <c r="CH20" s="102"/>
-      <c r="CI20" s="102"/>
-      <c r="CJ20" s="102"/>
+      <c r="CH20" s="92"/>
+      <c r="CI20" s="92"/>
+      <c r="CJ20" s="92"/>
       <c r="CK20" s="46"/>
       <c r="CL20" s="46"/>
       <c r="CM20" s="46"/>
@@ -4876,7 +4882,7 @@
       <c r="DN20" s="52"/>
     </row>
     <row r="21" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B21" s="89"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="57" t="s">
         <v>30</v>
       </c>
@@ -4964,9 +4970,9 @@
       <c r="CE21" s="34"/>
       <c r="CF21" s="34"/>
       <c r="CG21" s="34"/>
-      <c r="CH21" s="101"/>
-      <c r="CI21" s="101"/>
-      <c r="CJ21" s="101"/>
+      <c r="CH21" s="91"/>
+      <c r="CI21" s="91"/>
+      <c r="CJ21" s="91"/>
       <c r="CK21" s="34"/>
       <c r="CL21" s="34"/>
       <c r="CM21" s="34"/>
@@ -4999,7 +5005,7 @@
       <c r="DN21" s="40"/>
     </row>
     <row r="22" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B22" s="90"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="55"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -5085,9 +5091,9 @@
       <c r="CE22" s="46"/>
       <c r="CF22" s="46"/>
       <c r="CG22" s="46"/>
-      <c r="CH22" s="102"/>
-      <c r="CI22" s="102"/>
-      <c r="CJ22" s="102"/>
+      <c r="CH22" s="92"/>
+      <c r="CI22" s="92"/>
+      <c r="CJ22" s="92"/>
       <c r="CK22" s="46"/>
       <c r="CL22" s="46"/>
       <c r="CM22" s="46"/>
@@ -5120,7 +5126,7 @@
       <c r="DN22" s="52"/>
     </row>
     <row r="23" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B23" s="89"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="28" t="s">
         <v>31</v>
       </c>
@@ -5214,9 +5220,9 @@
       <c r="CE23" s="34"/>
       <c r="CF23" s="34"/>
       <c r="CG23" s="34"/>
-      <c r="CH23" s="101"/>
-      <c r="CI23" s="101"/>
-      <c r="CJ23" s="101"/>
+      <c r="CH23" s="91"/>
+      <c r="CI23" s="91"/>
+      <c r="CJ23" s="91"/>
       <c r="CK23" s="34"/>
       <c r="CL23" s="34"/>
       <c r="CM23" s="34"/>
@@ -5249,7 +5255,7 @@
       <c r="DN23" s="40"/>
     </row>
     <row r="24" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B24" s="90"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="41"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -5335,9 +5341,9 @@
       <c r="CE24" s="46"/>
       <c r="CF24" s="46"/>
       <c r="CG24" s="46"/>
-      <c r="CH24" s="102"/>
-      <c r="CI24" s="102"/>
-      <c r="CJ24" s="102"/>
+      <c r="CH24" s="92"/>
+      <c r="CI24" s="92"/>
+      <c r="CJ24" s="92"/>
       <c r="CK24" s="46"/>
       <c r="CL24" s="46"/>
       <c r="CM24" s="46"/>
@@ -5370,7 +5376,7 @@
       <c r="DN24" s="52"/>
     </row>
     <row r="25" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B25" s="89"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="28" t="s">
         <v>32</v>
       </c>
@@ -5458,9 +5464,9 @@
       <c r="CE25" s="34"/>
       <c r="CF25" s="34"/>
       <c r="CG25" s="34"/>
-      <c r="CH25" s="101"/>
-      <c r="CI25" s="101"/>
-      <c r="CJ25" s="101"/>
+      <c r="CH25" s="91"/>
+      <c r="CI25" s="91"/>
+      <c r="CJ25" s="91"/>
       <c r="CK25" s="34"/>
       <c r="CL25" s="34"/>
       <c r="CM25" s="34"/>
@@ -5493,7 +5499,7 @@
       <c r="DN25" s="40"/>
     </row>
     <row r="26" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B26" s="90"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="55"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -5579,9 +5585,9 @@
       <c r="CE26" s="46"/>
       <c r="CF26" s="46"/>
       <c r="CG26" s="46"/>
-      <c r="CH26" s="102"/>
-      <c r="CI26" s="102"/>
-      <c r="CJ26" s="102"/>
+      <c r="CH26" s="92"/>
+      <c r="CI26" s="92"/>
+      <c r="CJ26" s="92"/>
       <c r="CK26" s="46"/>
       <c r="CL26" s="46"/>
       <c r="CM26" s="46"/>
@@ -5614,7 +5620,7 @@
       <c r="DN26" s="52"/>
     </row>
     <row r="27" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B27" s="89"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="28" t="s">
         <v>33</v>
       </c>
@@ -5708,9 +5714,9 @@
       <c r="CE27" s="34"/>
       <c r="CF27" s="34"/>
       <c r="CG27" s="34"/>
-      <c r="CH27" s="101"/>
-      <c r="CI27" s="101"/>
-      <c r="CJ27" s="101"/>
+      <c r="CH27" s="91"/>
+      <c r="CI27" s="91"/>
+      <c r="CJ27" s="91"/>
       <c r="CK27" s="34"/>
       <c r="CL27" s="34"/>
       <c r="CM27" s="34"/>
@@ -5743,7 +5749,7 @@
       <c r="DN27" s="40"/>
     </row>
     <row r="28" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B28" s="90"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="41"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -5829,9 +5835,9 @@
       <c r="CE28" s="46"/>
       <c r="CF28" s="46"/>
       <c r="CG28" s="46"/>
-      <c r="CH28" s="102"/>
-      <c r="CI28" s="102"/>
-      <c r="CJ28" s="102"/>
+      <c r="CH28" s="92"/>
+      <c r="CI28" s="92"/>
+      <c r="CJ28" s="92"/>
       <c r="CK28" s="46"/>
       <c r="CL28" s="46"/>
       <c r="CM28" s="46"/>
@@ -5864,7 +5870,7 @@
       <c r="DN28" s="52"/>
     </row>
     <row r="29" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B29" s="89"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="28" t="s">
         <v>34</v>
       </c>
@@ -5952,9 +5958,9 @@
       <c r="CE29" s="34"/>
       <c r="CF29" s="34"/>
       <c r="CG29" s="34"/>
-      <c r="CH29" s="101"/>
-      <c r="CI29" s="101"/>
-      <c r="CJ29" s="101"/>
+      <c r="CH29" s="91"/>
+      <c r="CI29" s="91"/>
+      <c r="CJ29" s="91"/>
       <c r="CK29" s="34"/>
       <c r="CL29" s="34"/>
       <c r="CM29" s="34"/>
@@ -5987,7 +5993,7 @@
       <c r="DN29" s="40"/>
     </row>
     <row r="30" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B30" s="90"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="55"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -6073,9 +6079,9 @@
       <c r="CE30" s="46"/>
       <c r="CF30" s="46"/>
       <c r="CG30" s="46"/>
-      <c r="CH30" s="102"/>
-      <c r="CI30" s="102"/>
-      <c r="CJ30" s="102"/>
+      <c r="CH30" s="92"/>
+      <c r="CI30" s="92"/>
+      <c r="CJ30" s="92"/>
       <c r="CK30" s="46"/>
       <c r="CL30" s="46"/>
       <c r="CM30" s="46"/>
@@ -6108,7 +6114,7 @@
       <c r="DN30" s="52"/>
     </row>
     <row r="31" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B31" s="89"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="28" t="s">
         <v>35</v>
       </c>
@@ -6202,9 +6208,9 @@
       <c r="CE31" s="34"/>
       <c r="CF31" s="34"/>
       <c r="CG31" s="34"/>
-      <c r="CH31" s="101"/>
-      <c r="CI31" s="101"/>
-      <c r="CJ31" s="101"/>
+      <c r="CH31" s="91"/>
+      <c r="CI31" s="91"/>
+      <c r="CJ31" s="91"/>
       <c r="CK31" s="34"/>
       <c r="CL31" s="34"/>
       <c r="CM31" s="34"/>
@@ -6237,7 +6243,7 @@
       <c r="DN31" s="40"/>
     </row>
     <row r="32" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B32" s="90"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="41"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -6323,9 +6329,9 @@
       <c r="CE32" s="46"/>
       <c r="CF32" s="46"/>
       <c r="CG32" s="46"/>
-      <c r="CH32" s="102"/>
-      <c r="CI32" s="102"/>
-      <c r="CJ32" s="102"/>
+      <c r="CH32" s="92"/>
+      <c r="CI32" s="92"/>
+      <c r="CJ32" s="92"/>
       <c r="CK32" s="46"/>
       <c r="CL32" s="46"/>
       <c r="CM32" s="46"/>
@@ -6358,7 +6364,7 @@
       <c r="DN32" s="52"/>
     </row>
     <row r="33" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B33" s="89"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="28" t="s">
         <v>36</v>
       </c>
@@ -6446,9 +6452,9 @@
       <c r="CE33" s="34"/>
       <c r="CF33" s="34"/>
       <c r="CG33" s="34"/>
-      <c r="CH33" s="101"/>
-      <c r="CI33" s="101"/>
-      <c r="CJ33" s="101"/>
+      <c r="CH33" s="91"/>
+      <c r="CI33" s="91"/>
+      <c r="CJ33" s="91"/>
       <c r="CK33" s="34"/>
       <c r="CL33" s="34"/>
       <c r="CM33" s="34"/>
@@ -6481,7 +6487,7 @@
       <c r="DN33" s="40"/>
     </row>
     <row r="34" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B34" s="90"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="55"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -6567,9 +6573,9 @@
       <c r="CE34" s="46"/>
       <c r="CF34" s="46"/>
       <c r="CG34" s="46"/>
-      <c r="CH34" s="102"/>
-      <c r="CI34" s="102"/>
-      <c r="CJ34" s="102"/>
+      <c r="CH34" s="92"/>
+      <c r="CI34" s="92"/>
+      <c r="CJ34" s="92"/>
       <c r="CK34" s="46"/>
       <c r="CL34" s="46"/>
       <c r="CM34" s="46"/>
@@ -6602,7 +6608,7 @@
       <c r="DN34" s="52"/>
     </row>
     <row r="35" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B35" s="89"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="28" t="s">
         <v>37</v>
       </c>
@@ -6696,9 +6702,9 @@
       <c r="CE35" s="34"/>
       <c r="CF35" s="34"/>
       <c r="CG35" s="34"/>
-      <c r="CH35" s="101"/>
-      <c r="CI35" s="101"/>
-      <c r="CJ35" s="101"/>
+      <c r="CH35" s="91"/>
+      <c r="CI35" s="91"/>
+      <c r="CJ35" s="91"/>
       <c r="CK35" s="34"/>
       <c r="CL35" s="34"/>
       <c r="CM35" s="34"/>
@@ -6731,7 +6737,7 @@
       <c r="DN35" s="40"/>
     </row>
     <row r="36" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B36" s="90"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="41"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -6817,9 +6823,9 @@
       <c r="CE36" s="46"/>
       <c r="CF36" s="46"/>
       <c r="CG36" s="46"/>
-      <c r="CH36" s="102"/>
-      <c r="CI36" s="102"/>
-      <c r="CJ36" s="102"/>
+      <c r="CH36" s="92"/>
+      <c r="CI36" s="92"/>
+      <c r="CJ36" s="92"/>
       <c r="CK36" s="46"/>
       <c r="CL36" s="46"/>
       <c r="CM36" s="46"/>
@@ -6852,7 +6858,7 @@
       <c r="DN36" s="52"/>
     </row>
     <row r="37" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B37" s="89"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="28" t="s">
         <v>38</v>
       </c>
@@ -6940,9 +6946,9 @@
       <c r="CE37" s="34"/>
       <c r="CF37" s="34"/>
       <c r="CG37" s="34"/>
-      <c r="CH37" s="101"/>
-      <c r="CI37" s="101"/>
-      <c r="CJ37" s="101"/>
+      <c r="CH37" s="91"/>
+      <c r="CI37" s="91"/>
+      <c r="CJ37" s="91"/>
       <c r="CK37" s="34"/>
       <c r="CL37" s="34"/>
       <c r="CM37" s="34"/>
@@ -6975,7 +6981,7 @@
       <c r="DN37" s="40"/>
     </row>
     <row r="38" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B38" s="90"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="55"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -7061,9 +7067,9 @@
       <c r="CE38" s="46"/>
       <c r="CF38" s="46"/>
       <c r="CG38" s="46"/>
-      <c r="CH38" s="102"/>
-      <c r="CI38" s="102"/>
-      <c r="CJ38" s="102"/>
+      <c r="CH38" s="92"/>
+      <c r="CI38" s="92"/>
+      <c r="CJ38" s="92"/>
       <c r="CK38" s="46"/>
       <c r="CL38" s="46"/>
       <c r="CM38" s="46"/>
@@ -7096,7 +7102,7 @@
       <c r="DN38" s="52"/>
     </row>
     <row r="39" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B39" s="89"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="28" t="s">
         <v>39</v>
       </c>
@@ -7190,9 +7196,9 @@
       <c r="CE39" s="34"/>
       <c r="CF39" s="34"/>
       <c r="CG39" s="34"/>
-      <c r="CH39" s="101"/>
-      <c r="CI39" s="101"/>
-      <c r="CJ39" s="101"/>
+      <c r="CH39" s="91"/>
+      <c r="CI39" s="91"/>
+      <c r="CJ39" s="91"/>
       <c r="CK39" s="34"/>
       <c r="CL39" s="34"/>
       <c r="CM39" s="34"/>
@@ -7225,7 +7231,7 @@
       <c r="DN39" s="40"/>
     </row>
     <row r="40" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B40" s="90"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="41"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -7311,9 +7317,9 @@
       <c r="CE40" s="46"/>
       <c r="CF40" s="46"/>
       <c r="CG40" s="46"/>
-      <c r="CH40" s="102"/>
-      <c r="CI40" s="102"/>
-      <c r="CJ40" s="102"/>
+      <c r="CH40" s="92"/>
+      <c r="CI40" s="92"/>
+      <c r="CJ40" s="92"/>
       <c r="CK40" s="46"/>
       <c r="CL40" s="46"/>
       <c r="CM40" s="46"/>
@@ -7346,7 +7352,7 @@
       <c r="DN40" s="52"/>
     </row>
     <row r="41" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B41" s="89"/>
+      <c r="B41" s="95"/>
       <c r="C41" s="28" t="s">
         <v>40</v>
       </c>
@@ -7434,9 +7440,9 @@
       <c r="CE41" s="34"/>
       <c r="CF41" s="34"/>
       <c r="CG41" s="34"/>
-      <c r="CH41" s="101"/>
-      <c r="CI41" s="101"/>
-      <c r="CJ41" s="101"/>
+      <c r="CH41" s="91"/>
+      <c r="CI41" s="91"/>
+      <c r="CJ41" s="91"/>
       <c r="CK41" s="34"/>
       <c r="CL41" s="34"/>
       <c r="CM41" s="34"/>
@@ -7469,7 +7475,7 @@
       <c r="DN41" s="40"/>
     </row>
     <row r="42" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B42" s="90"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="55"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -7555,9 +7561,9 @@
       <c r="CE42" s="46"/>
       <c r="CF42" s="46"/>
       <c r="CG42" s="46"/>
-      <c r="CH42" s="102"/>
-      <c r="CI42" s="102"/>
-      <c r="CJ42" s="102"/>
+      <c r="CH42" s="92"/>
+      <c r="CI42" s="92"/>
+      <c r="CJ42" s="92"/>
       <c r="CK42" s="46"/>
       <c r="CL42" s="46"/>
       <c r="CM42" s="46"/>
@@ -7590,7 +7596,7 @@
       <c r="DN42" s="52"/>
     </row>
     <row r="43" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B43" s="89"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="57"/>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -7676,9 +7682,9 @@
       <c r="CE43" s="34"/>
       <c r="CF43" s="34"/>
       <c r="CG43" s="34"/>
-      <c r="CH43" s="101"/>
-      <c r="CI43" s="101"/>
-      <c r="CJ43" s="101"/>
+      <c r="CH43" s="91"/>
+      <c r="CI43" s="91"/>
+      <c r="CJ43" s="91"/>
       <c r="CK43" s="34"/>
       <c r="CL43" s="34"/>
       <c r="CM43" s="34"/>
@@ -7711,7 +7717,7 @@
       <c r="DN43" s="40"/>
     </row>
     <row r="44" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B44" s="90"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="55"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -7797,9 +7803,9 @@
       <c r="CE44" s="46"/>
       <c r="CF44" s="46"/>
       <c r="CG44" s="46"/>
-      <c r="CH44" s="102"/>
-      <c r="CI44" s="102"/>
-      <c r="CJ44" s="102"/>
+      <c r="CH44" s="92"/>
+      <c r="CI44" s="92"/>
+      <c r="CJ44" s="92"/>
       <c r="CK44" s="46"/>
       <c r="CL44" s="46"/>
       <c r="CM44" s="46"/>
@@ -7832,7 +7838,7 @@
       <c r="DN44" s="52"/>
     </row>
     <row r="45" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B45" s="89"/>
+      <c r="B45" s="95"/>
       <c r="C45" s="57" t="s">
         <v>41</v>
       </c>
@@ -7924,9 +7930,9 @@
       <c r="CE45" s="62"/>
       <c r="CF45" s="62"/>
       <c r="CG45" s="62"/>
-      <c r="CH45" s="103"/>
-      <c r="CI45" s="103"/>
-      <c r="CJ45" s="103"/>
+      <c r="CH45" s="93"/>
+      <c r="CI45" s="93"/>
+      <c r="CJ45" s="93"/>
       <c r="CK45" s="62"/>
       <c r="CL45" s="62"/>
       <c r="CM45" s="62"/>
@@ -7959,7 +7965,7 @@
       <c r="DN45" s="68"/>
     </row>
     <row r="46" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B46" s="90"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="55"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -8045,9 +8051,9 @@
       <c r="CE46" s="46"/>
       <c r="CF46" s="46"/>
       <c r="CG46" s="46"/>
-      <c r="CH46" s="102"/>
-      <c r="CI46" s="102"/>
-      <c r="CJ46" s="102"/>
+      <c r="CH46" s="92"/>
+      <c r="CI46" s="92"/>
+      <c r="CJ46" s="92"/>
       <c r="CK46" s="46"/>
       <c r="CL46" s="46"/>
       <c r="CM46" s="46"/>
@@ -8080,7 +8086,7 @@
       <c r="DN46" s="52"/>
     </row>
     <row r="47" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B47" s="89"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="57" t="s">
         <v>42</v>
       </c>
@@ -8172,9 +8178,9 @@
       <c r="CE47" s="34"/>
       <c r="CF47" s="34"/>
       <c r="CG47" s="34"/>
-      <c r="CH47" s="101"/>
-      <c r="CI47" s="101"/>
-      <c r="CJ47" s="101"/>
+      <c r="CH47" s="91"/>
+      <c r="CI47" s="91"/>
+      <c r="CJ47" s="91"/>
       <c r="CK47" s="34"/>
       <c r="CL47" s="34"/>
       <c r="CM47" s="34"/>
@@ -8207,7 +8213,7 @@
       <c r="DN47" s="40"/>
     </row>
     <row r="48" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B48" s="90"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="55"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
@@ -8293,9 +8299,9 @@
       <c r="CE48" s="46"/>
       <c r="CF48" s="46"/>
       <c r="CG48" s="46"/>
-      <c r="CH48" s="102"/>
-      <c r="CI48" s="102"/>
-      <c r="CJ48" s="102"/>
+      <c r="CH48" s="92"/>
+      <c r="CI48" s="92"/>
+      <c r="CJ48" s="92"/>
       <c r="CK48" s="46"/>
       <c r="CL48" s="46"/>
       <c r="CM48" s="46"/>
@@ -8328,7 +8334,7 @@
       <c r="DN48" s="52"/>
     </row>
     <row r="49" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B49" s="89"/>
+      <c r="B49" s="95"/>
       <c r="C49" s="57" t="s">
         <v>43</v>
       </c>
@@ -8420,9 +8426,9 @@
       <c r="CE49" s="34"/>
       <c r="CF49" s="34"/>
       <c r="CG49" s="34"/>
-      <c r="CH49" s="101"/>
-      <c r="CI49" s="101"/>
-      <c r="CJ49" s="101"/>
+      <c r="CH49" s="91"/>
+      <c r="CI49" s="91"/>
+      <c r="CJ49" s="91"/>
       <c r="CK49" s="34"/>
       <c r="CL49" s="34"/>
       <c r="CM49" s="34"/>
@@ -8455,7 +8461,7 @@
       <c r="DN49" s="40"/>
     </row>
     <row r="50" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B50" s="90"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="55"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
@@ -8541,9 +8547,9 @@
       <c r="CE50" s="46"/>
       <c r="CF50" s="46"/>
       <c r="CG50" s="46"/>
-      <c r="CH50" s="102"/>
-      <c r="CI50" s="102"/>
-      <c r="CJ50" s="102"/>
+      <c r="CH50" s="92"/>
+      <c r="CI50" s="92"/>
+      <c r="CJ50" s="92"/>
       <c r="CK50" s="46"/>
       <c r="CL50" s="46"/>
       <c r="CM50" s="46"/>
@@ -8576,7 +8582,7 @@
       <c r="DN50" s="52"/>
     </row>
     <row r="51" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B51" s="89"/>
+      <c r="B51" s="95"/>
       <c r="C51" s="57" t="s">
         <v>44</v>
       </c>
@@ -8668,9 +8674,9 @@
       <c r="CE51" s="34"/>
       <c r="CF51" s="34"/>
       <c r="CG51" s="34"/>
-      <c r="CH51" s="101"/>
-      <c r="CI51" s="101"/>
-      <c r="CJ51" s="101"/>
+      <c r="CH51" s="91"/>
+      <c r="CI51" s="91"/>
+      <c r="CJ51" s="91"/>
       <c r="CK51" s="34"/>
       <c r="CL51" s="34"/>
       <c r="CM51" s="34"/>
@@ -8703,7 +8709,7 @@
       <c r="DN51" s="40"/>
     </row>
     <row r="52" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B52" s="90"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="55"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -8789,9 +8795,9 @@
       <c r="CE52" s="46"/>
       <c r="CF52" s="46"/>
       <c r="CG52" s="46"/>
-      <c r="CH52" s="102"/>
-      <c r="CI52" s="102"/>
-      <c r="CJ52" s="102"/>
+      <c r="CH52" s="92"/>
+      <c r="CI52" s="92"/>
+      <c r="CJ52" s="92"/>
       <c r="CK52" s="46"/>
       <c r="CL52" s="46"/>
       <c r="CM52" s="46"/>
@@ -8824,7 +8830,7 @@
       <c r="DN52" s="52"/>
     </row>
     <row r="53" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B53" s="89"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="57" t="s">
         <v>46</v>
       </c>
@@ -8916,9 +8922,9 @@
       <c r="CE53" s="34"/>
       <c r="CF53" s="34"/>
       <c r="CG53" s="34"/>
-      <c r="CH53" s="101"/>
-      <c r="CI53" s="101"/>
-      <c r="CJ53" s="101"/>
+      <c r="CH53" s="91"/>
+      <c r="CI53" s="91"/>
+      <c r="CJ53" s="91"/>
       <c r="CK53" s="34"/>
       <c r="CL53" s="34"/>
       <c r="CM53" s="34"/>
@@ -8951,7 +8957,7 @@
       <c r="DN53" s="40"/>
     </row>
     <row r="54" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B54" s="90"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="55"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
@@ -9037,9 +9043,9 @@
       <c r="CE54" s="46"/>
       <c r="CF54" s="46"/>
       <c r="CG54" s="46"/>
-      <c r="CH54" s="102"/>
-      <c r="CI54" s="102"/>
-      <c r="CJ54" s="102"/>
+      <c r="CH54" s="92"/>
+      <c r="CI54" s="92"/>
+      <c r="CJ54" s="92"/>
       <c r="CK54" s="46"/>
       <c r="CL54" s="46"/>
       <c r="CM54" s="46"/>
@@ -9072,7 +9078,7 @@
       <c r="DN54" s="52"/>
     </row>
     <row r="55" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B55" s="89"/>
+      <c r="B55" s="95"/>
       <c r="C55" s="57" t="s">
         <v>47</v>
       </c>
@@ -9164,9 +9170,9 @@
       <c r="CE55" s="34"/>
       <c r="CF55" s="34"/>
       <c r="CG55" s="34"/>
-      <c r="CH55" s="101"/>
-      <c r="CI55" s="101"/>
-      <c r="CJ55" s="101"/>
+      <c r="CH55" s="91"/>
+      <c r="CI55" s="91"/>
+      <c r="CJ55" s="91"/>
       <c r="CK55" s="34"/>
       <c r="CL55" s="34"/>
       <c r="CM55" s="34"/>
@@ -9199,7 +9205,7 @@
       <c r="DN55" s="40"/>
     </row>
     <row r="56" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B56" s="90"/>
+      <c r="B56" s="96"/>
       <c r="C56" s="55"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
@@ -9285,9 +9291,9 @@
       <c r="CE56" s="46"/>
       <c r="CF56" s="46"/>
       <c r="CG56" s="46"/>
-      <c r="CH56" s="102"/>
-      <c r="CI56" s="102"/>
-      <c r="CJ56" s="102"/>
+      <c r="CH56" s="92"/>
+      <c r="CI56" s="92"/>
+      <c r="CJ56" s="92"/>
       <c r="CK56" s="46"/>
       <c r="CL56" s="46"/>
       <c r="CM56" s="46"/>
@@ -9320,7 +9326,7 @@
       <c r="DN56" s="52"/>
     </row>
     <row r="57" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B57" s="89"/>
+      <c r="B57" s="95"/>
       <c r="C57" s="57" t="s">
         <v>48</v>
       </c>
@@ -9412,9 +9418,9 @@
       <c r="CE57" s="34"/>
       <c r="CF57" s="34"/>
       <c r="CG57" s="34"/>
-      <c r="CH57" s="101"/>
-      <c r="CI57" s="101"/>
-      <c r="CJ57" s="101"/>
+      <c r="CH57" s="91"/>
+      <c r="CI57" s="91"/>
+      <c r="CJ57" s="91"/>
       <c r="CK57" s="34"/>
       <c r="CL57" s="34"/>
       <c r="CM57" s="34"/>
@@ -9447,7 +9453,7 @@
       <c r="DN57" s="40"/>
     </row>
     <row r="58" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B58" s="90"/>
+      <c r="B58" s="96"/>
       <c r="C58" s="55"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -9530,12 +9536,12 @@
       <c r="CB58" s="87"/>
       <c r="CC58" s="87"/>
       <c r="CD58" s="87"/>
-      <c r="CE58" s="46"/>
-      <c r="CF58" s="46"/>
-      <c r="CG58" s="46"/>
-      <c r="CH58" s="102"/>
-      <c r="CI58" s="102"/>
-      <c r="CJ58" s="102"/>
+      <c r="CE58" s="86"/>
+      <c r="CF58" s="86"/>
+      <c r="CG58" s="86"/>
+      <c r="CH58" s="92"/>
+      <c r="CI58" s="92"/>
+      <c r="CJ58" s="92"/>
       <c r="CK58" s="46"/>
       <c r="CL58" s="46"/>
       <c r="CM58" s="46"/>
@@ -9568,7 +9574,7 @@
       <c r="DN58" s="52"/>
     </row>
     <row r="59" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B59" s="89"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="57" t="s">
         <v>49</v>
       </c>
@@ -9660,9 +9666,9 @@
       <c r="CE59" s="69"/>
       <c r="CF59" s="69"/>
       <c r="CG59" s="69"/>
-      <c r="CH59" s="101"/>
-      <c r="CI59" s="101"/>
-      <c r="CJ59" s="101"/>
+      <c r="CH59" s="91"/>
+      <c r="CI59" s="91"/>
+      <c r="CJ59" s="91"/>
       <c r="CK59" s="34"/>
       <c r="CL59" s="34"/>
       <c r="CM59" s="34"/>
@@ -9695,7 +9701,7 @@
       <c r="DN59" s="40"/>
     </row>
     <row r="60" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B60" s="90"/>
+      <c r="B60" s="96"/>
       <c r="C60" s="55"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -9778,12 +9784,12 @@
       <c r="CB60" s="46"/>
       <c r="CC60" s="46"/>
       <c r="CD60" s="46"/>
-      <c r="CE60" s="46"/>
-      <c r="CF60" s="46"/>
-      <c r="CG60" s="46"/>
-      <c r="CH60" s="102"/>
-      <c r="CI60" s="102"/>
-      <c r="CJ60" s="102"/>
+      <c r="CE60" s="86"/>
+      <c r="CF60" s="86"/>
+      <c r="CG60" s="86"/>
+      <c r="CH60" s="92"/>
+      <c r="CI60" s="92"/>
+      <c r="CJ60" s="92"/>
       <c r="CK60" s="46"/>
       <c r="CL60" s="46"/>
       <c r="CM60" s="46"/>
@@ -9816,7 +9822,7 @@
       <c r="DN60" s="52"/>
     </row>
     <row r="61" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B61" s="89"/>
+      <c r="B61" s="95"/>
       <c r="C61" s="57" t="s">
         <v>50</v>
       </c>
@@ -9908,9 +9914,9 @@
       <c r="CE61" s="34"/>
       <c r="CF61" s="34"/>
       <c r="CG61" s="69"/>
-      <c r="CH61" s="101"/>
-      <c r="CI61" s="101"/>
-      <c r="CJ61" s="101"/>
+      <c r="CH61" s="91"/>
+      <c r="CI61" s="91"/>
+      <c r="CJ61" s="91"/>
       <c r="CK61" s="34"/>
       <c r="CL61" s="34"/>
       <c r="CM61" s="34"/>
@@ -9943,7 +9949,7 @@
       <c r="DN61" s="40"/>
     </row>
     <row r="62" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B62" s="90"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="55"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
@@ -10028,10 +10034,10 @@
       <c r="CD62" s="87"/>
       <c r="CE62" s="46"/>
       <c r="CF62" s="46"/>
-      <c r="CG62" s="46"/>
-      <c r="CH62" s="102"/>
-      <c r="CI62" s="102"/>
-      <c r="CJ62" s="102"/>
+      <c r="CG62" s="86"/>
+      <c r="CH62" s="92"/>
+      <c r="CI62" s="92"/>
+      <c r="CJ62" s="92"/>
       <c r="CK62" s="46"/>
       <c r="CL62" s="46"/>
       <c r="CM62" s="46"/>
@@ -10064,7 +10070,7 @@
       <c r="DN62" s="52"/>
     </row>
     <row r="63" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B63" s="89"/>
+      <c r="B63" s="95"/>
       <c r="C63" s="57" t="s">
         <v>51</v>
       </c>
@@ -10156,9 +10162,9 @@
       <c r="CE63" s="69"/>
       <c r="CF63" s="69"/>
       <c r="CG63" s="34"/>
-      <c r="CH63" s="101"/>
-      <c r="CI63" s="101"/>
-      <c r="CJ63" s="101"/>
+      <c r="CH63" s="91"/>
+      <c r="CI63" s="91"/>
+      <c r="CJ63" s="91"/>
       <c r="CK63" s="34"/>
       <c r="CL63" s="34"/>
       <c r="CM63" s="34"/>
@@ -10191,7 +10197,7 @@
       <c r="DN63" s="40"/>
     </row>
     <row r="64" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B64" s="90"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="55"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
@@ -10274,12 +10280,12 @@
       <c r="CB64" s="87"/>
       <c r="CC64" s="87"/>
       <c r="CD64" s="46"/>
-      <c r="CE64" s="46"/>
-      <c r="CF64" s="46"/>
+      <c r="CE64" s="86"/>
+      <c r="CF64" s="86"/>
       <c r="CG64" s="46"/>
-      <c r="CH64" s="102"/>
-      <c r="CI64" s="102"/>
-      <c r="CJ64" s="102"/>
+      <c r="CH64" s="92"/>
+      <c r="CI64" s="92"/>
+      <c r="CJ64" s="92"/>
       <c r="CK64" s="46"/>
       <c r="CL64" s="46"/>
       <c r="CM64" s="46"/>
@@ -10312,7 +10318,7 @@
       <c r="DN64" s="52"/>
     </row>
     <row r="65" spans="2:118" x14ac:dyDescent="0.15">
-      <c r="B65" s="89"/>
+      <c r="B65" s="95"/>
       <c r="C65" s="57"/>
       <c r="D65" s="29"/>
       <c r="E65" s="29"/>
@@ -10398,9 +10404,9 @@
       <c r="CE65" s="34"/>
       <c r="CF65" s="34"/>
       <c r="CG65" s="34"/>
-      <c r="CH65" s="101"/>
-      <c r="CI65" s="101"/>
-      <c r="CJ65" s="101"/>
+      <c r="CH65" s="91"/>
+      <c r="CI65" s="91"/>
+      <c r="CJ65" s="91"/>
       <c r="CK65" s="34"/>
       <c r="CL65" s="34"/>
       <c r="CM65" s="34"/>
@@ -10433,7 +10439,7 @@
       <c r="DN65" s="40"/>
     </row>
     <row r="66" spans="2:118" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="91"/>
+      <c r="B66" s="97"/>
       <c r="C66" s="71"/>
       <c r="D66" s="72"/>
       <c r="E66" s="72"/>
@@ -10519,9 +10525,9 @@
       <c r="CE66" s="77"/>
       <c r="CF66" s="77"/>
       <c r="CG66" s="77"/>
-      <c r="CH66" s="104"/>
-      <c r="CI66" s="104"/>
-      <c r="CJ66" s="104"/>
+      <c r="CH66" s="94"/>
+      <c r="CI66" s="94"/>
+      <c r="CJ66" s="94"/>
       <c r="CK66" s="77"/>
       <c r="CL66" s="77"/>
       <c r="CM66" s="77"/>
